--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Ccr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H2">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I2">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J2">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>58.378819</v>
+        <v>0.052331</v>
       </c>
       <c r="N2">
-        <v>175.136457</v>
+        <v>0.104662</v>
       </c>
       <c r="O2">
-        <v>0.6920327730022572</v>
+        <v>0.0001084679645805325</v>
       </c>
       <c r="P2">
-        <v>0.6920327730022573</v>
+        <v>7.231459099251979E-05</v>
       </c>
       <c r="Q2">
-        <v>1721.056174757015</v>
+        <v>2.234723382431334</v>
       </c>
       <c r="R2">
-        <v>15489.50557281313</v>
+        <v>13.408340294588</v>
       </c>
       <c r="S2">
-        <v>0.253984062054358</v>
+        <v>5.532096049744646E-05</v>
       </c>
       <c r="T2">
-        <v>0.253984062054358</v>
+        <v>3.690150720408125E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H3">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I3">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J3">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,60 +620,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.979641</v>
+        <v>112.0466536666667</v>
       </c>
       <c r="N3">
-        <v>77.938923</v>
+        <v>336.139961</v>
       </c>
       <c r="O3">
-        <v>0.3079672269977427</v>
+        <v>0.232242312611706</v>
       </c>
       <c r="P3">
-        <v>0.3079672269977428</v>
+        <v>0.2322507098656298</v>
       </c>
       <c r="Q3">
-        <v>765.9014404011924</v>
+        <v>4784.798243337324</v>
       </c>
       <c r="R3">
-        <v>6893.112963610732</v>
+        <v>43063.18419003592</v>
       </c>
       <c r="S3">
-        <v>0.1130275477462801</v>
+        <v>0.1184485009146535</v>
       </c>
       <c r="T3">
-        <v>0.1130275477462801</v>
+        <v>0.1185155184538905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2401406666666667</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H4">
-        <v>0.720422</v>
+        <v>128.110874</v>
       </c>
       <c r="I4">
-        <v>0.0029895496726624</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J4">
-        <v>0.0029895496726624</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,60 +682,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.378819</v>
+        <v>335.9255523333333</v>
       </c>
       <c r="N4">
-        <v>175.136457</v>
+        <v>1007.776657</v>
       </c>
       <c r="O4">
-        <v>0.6920327730022572</v>
+        <v>0.6962825268423649</v>
       </c>
       <c r="P4">
-        <v>0.6920327730022573</v>
+        <v>0.6963077025354368</v>
       </c>
       <c r="Q4">
-        <v>14.01912851387267</v>
+        <v>14345.23870278536</v>
       </c>
       <c r="R4">
-        <v>126.172156624854</v>
+        <v>129107.1483250682</v>
       </c>
       <c r="S4">
-        <v>0.002068866350000551</v>
+        <v>0.3551188437200744</v>
       </c>
       <c r="T4">
-        <v>0.002068866350000551</v>
+        <v>0.3553197680953011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2401406666666667</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H5">
-        <v>0.720422</v>
+        <v>128.110874</v>
       </c>
       <c r="I5">
-        <v>0.0029895496726624</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J5">
-        <v>0.0029895496726624</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,152 +744,772 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.979641</v>
+        <v>34.43127566666667</v>
       </c>
       <c r="N5">
-        <v>77.938923</v>
+        <v>103.293827</v>
       </c>
       <c r="O5">
-        <v>0.3079672269977427</v>
+        <v>0.07136669258134852</v>
       </c>
       <c r="P5">
-        <v>0.3079672269977428</v>
+        <v>0.07136927300794077</v>
       </c>
       <c r="Q5">
-        <v>6.238768309500667</v>
+        <v>1470.340272863867</v>
       </c>
       <c r="R5">
-        <v>56.148914785506</v>
+        <v>13233.0624557748</v>
       </c>
       <c r="S5">
-        <v>0.0009206833226618486</v>
+        <v>0.03639852555908269</v>
       </c>
       <c r="T5">
-        <v>0.0009206833226618489</v>
+        <v>0.03641911965352871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>50.60572933333333</v>
+        <v>0.132963</v>
       </c>
       <c r="H6">
-        <v>151.817188</v>
+        <v>0.265926</v>
       </c>
       <c r="I6">
-        <v>0.6299988405266995</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J6">
-        <v>0.6299988405266996</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>58.378819</v>
+        <v>0.052331</v>
       </c>
       <c r="N6">
-        <v>175.136457</v>
+        <v>0.104662</v>
       </c>
       <c r="O6">
-        <v>0.6920327730022572</v>
+        <v>0.0001084679645805325</v>
       </c>
       <c r="P6">
-        <v>0.6920327730022573</v>
+        <v>7.231459099251979E-05</v>
       </c>
       <c r="Q6">
-        <v>2954.302713113657</v>
+        <v>0.006958086753000001</v>
       </c>
       <c r="R6">
-        <v>26588.72441802291</v>
+        <v>0.027832347012</v>
       </c>
       <c r="S6">
-        <v>0.4359798445978987</v>
+        <v>1.72248630603097E-07</v>
       </c>
       <c r="T6">
-        <v>0.4359798445978988</v>
+        <v>7.659826132130289E-08</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.132963</v>
+      </c>
+      <c r="H7">
+        <v>0.265926</v>
+      </c>
+      <c r="I7">
+        <v>0.001588013855235666</v>
+      </c>
+      <c r="J7">
+        <v>0.001059236597621443</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N7">
+        <v>336.139961</v>
+      </c>
+      <c r="O7">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P7">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q7">
+        <v>14.898059211481</v>
+      </c>
+      <c r="R7">
+        <v>89.38835526888599</v>
+      </c>
+      <c r="S7">
+        <v>0.0003688040101993621</v>
+      </c>
+      <c r="T7">
+        <v>0.0002460084517132346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.132963</v>
+      </c>
+      <c r="H8">
+        <v>0.265926</v>
+      </c>
+      <c r="I8">
+        <v>0.001588013855235666</v>
+      </c>
+      <c r="J8">
+        <v>0.001059236597621443</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N8">
+        <v>1007.776657</v>
+      </c>
+      <c r="O8">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P8">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q8">
+        <v>44.66566921489699</v>
+      </c>
+      <c r="R8">
+        <v>267.994015289382</v>
+      </c>
+      <c r="S8">
+        <v>0.001105706299784175</v>
+      </c>
+      <c r="T8">
+        <v>0.0007375546017312399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.132963</v>
+      </c>
+      <c r="H9">
+        <v>0.265926</v>
+      </c>
+      <c r="I9">
+        <v>0.001588013855235666</v>
+      </c>
+      <c r="J9">
+        <v>0.001059236597621443</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N9">
+        <v>103.293827</v>
+      </c>
+      <c r="O9">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P9">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q9">
+        <v>4.578085706467</v>
+      </c>
+      <c r="R9">
+        <v>27.468514238802</v>
+      </c>
+      <c r="S9">
+        <v>0.0001133312966215259</v>
+      </c>
+      <c r="T9">
+        <v>7.559694591564707E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H10">
+        <v>26.777106</v>
+      </c>
+      <c r="I10">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J10">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.052331</v>
+      </c>
+      <c r="N10">
+        <v>0.104662</v>
+      </c>
+      <c r="O10">
+        <v>0.0001084679645805325</v>
+      </c>
+      <c r="P10">
+        <v>7.231459099251979E-05</v>
+      </c>
+      <c r="Q10">
+        <v>0.467090911362</v>
+      </c>
+      <c r="R10">
+        <v>2.802545468172</v>
+      </c>
+      <c r="S10">
+        <v>1.156291559810868E-05</v>
+      </c>
+      <c r="T10">
+        <v>7.712971889985288E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>50.60572933333333</v>
-      </c>
-      <c r="H7">
-        <v>151.817188</v>
-      </c>
-      <c r="I7">
-        <v>0.6299988405266995</v>
-      </c>
-      <c r="J7">
-        <v>0.6299988405266996</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>25.979641</v>
-      </c>
-      <c r="N7">
-        <v>77.938923</v>
-      </c>
-      <c r="O7">
-        <v>0.3079672269977427</v>
-      </c>
-      <c r="P7">
-        <v>0.3079672269977428</v>
-      </c>
-      <c r="Q7">
-        <v>1314.718680623169</v>
-      </c>
-      <c r="R7">
-        <v>11832.46812560852</v>
-      </c>
-      <c r="S7">
-        <v>0.1940189959288008</v>
-      </c>
-      <c r="T7">
-        <v>0.1940189959288008</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H11">
+        <v>26.777106</v>
+      </c>
+      <c r="I11">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J11">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N11">
+        <v>336.139961</v>
+      </c>
+      <c r="O11">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P11">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q11">
+        <v>1000.095040725874</v>
+      </c>
+      <c r="R11">
+        <v>9000.855366532865</v>
+      </c>
+      <c r="S11">
+        <v>0.0247575242093249</v>
+      </c>
+      <c r="T11">
+        <v>0.02477153188639382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H12">
+        <v>26.777106</v>
+      </c>
+      <c r="I12">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J12">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N12">
+        <v>1007.776657</v>
+      </c>
+      <c r="O12">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P12">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q12">
+        <v>2998.371374312738</v>
+      </c>
+      <c r="R12">
+        <v>26985.34236881464</v>
+      </c>
+      <c r="S12">
+        <v>0.07422519747144854</v>
+      </c>
+      <c r="T12">
+        <v>0.07426719369804077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H13">
+        <v>26.777106</v>
+      </c>
+      <c r="I13">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J13">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N13">
+        <v>103.293827</v>
+      </c>
+      <c r="O13">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P13">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q13">
+        <v>307.323306080518</v>
+      </c>
+      <c r="R13">
+        <v>2765.909754724662</v>
+      </c>
+      <c r="S13">
+        <v>0.007607841135634326</v>
+      </c>
+      <c r="T13">
+        <v>0.007612145612161083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H14">
+        <v>95.900486</v>
+      </c>
+      <c r="I14">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J14">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.052331</v>
+      </c>
+      <c r="N14">
+        <v>0.104662</v>
+      </c>
+      <c r="O14">
+        <v>0.0001084679645805325</v>
+      </c>
+      <c r="P14">
+        <v>7.231459099251979E-05</v>
+      </c>
+      <c r="Q14">
+        <v>1.672856110955333</v>
+      </c>
+      <c r="R14">
+        <v>10.037136665732</v>
+      </c>
+      <c r="S14">
+        <v>4.141183985437423E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.762351363713194E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H15">
+        <v>95.900486</v>
+      </c>
+      <c r="I15">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J15">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N15">
+        <v>336.139961</v>
+      </c>
+      <c r="O15">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P15">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q15">
+        <v>3581.776180435671</v>
+      </c>
+      <c r="R15">
+        <v>32235.98562392104</v>
+      </c>
+      <c r="S15">
+        <v>0.08866748347752829</v>
+      </c>
+      <c r="T15">
+        <v>0.08871765107363225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H16">
+        <v>95.900486</v>
+      </c>
+      <c r="I16">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J16">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N16">
+        <v>1007.776657</v>
+      </c>
+      <c r="O16">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P16">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q16">
+        <v>10738.47457619503</v>
+      </c>
+      <c r="R16">
+        <v>96646.27118575529</v>
+      </c>
+      <c r="S16">
+        <v>0.2658327793510579</v>
+      </c>
+      <c r="T16">
+        <v>0.2659831861403636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H17">
+        <v>95.900486</v>
+      </c>
+      <c r="I17">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J17">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N17">
+        <v>103.293827</v>
+      </c>
+      <c r="O17">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P17">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q17">
+        <v>1100.658690011103</v>
+      </c>
+      <c r="R17">
+        <v>9905.928210099923</v>
+      </c>
+      <c r="S17">
+        <v>0.02724699459000999</v>
+      </c>
+      <c r="T17">
+        <v>0.02726241079633532</v>
       </c>
     </row>
   </sheetData>
